--- a/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,88 +66,85 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.0 - y_1</t>
-  </si>
-  <si>
-    <t>-5.0</t>
+    <t>6.85 - y_1</t>
+  </si>
+  <si>
+    <t>-6.85</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>9.1</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>-6.85 + y_1</t>
+  </si>
+  <si>
+    <t>2.8499999999999996</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>-7.15 - 2x + y_1 + 4y_2</t>
+  </si>
+  <si>
+    <t>-8.85</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>-5.0 + y_1</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>7.800000000000001</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>3.0000000000000036 - 2x + y_1 + 4y_2</t>
-  </si>
-  <si>
-    <t>-19.000000000000004</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>-70.1 + 8x + y_1</t>
-  </si>
-  <si>
-    <t>21.799999999999997</t>
+    <t>-55.39 + 8x + y_1</t>
+  </si>
+  <si>
+    <t>7.249999999999998</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>-2.1999999999999993 - 2x - 2y_1</t>
-  </si>
-  <si>
-    <t>-14.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.5</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>-1.799999999999999 - 2x - 2y_1</t>
+  </si>
+  <si>
+    <t>-13.799999999999999</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>x</t>
@@ -159,34 +156,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.9100000000000001</t>
-  </si>
-  <si>
-    <t>-3.12</t>
+    <t>0.3999999999999999</t>
+  </si>
+  <si>
+    <t>-2.6</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-40.4</t>
-  </si>
-  <si>
-    <t>1.299999999999999</t>
-  </si>
-  <si>
-    <t>-6.8</t>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>2.1999999999999993</t>
+  </si>
+  <si>
+    <t>-2.8</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -697,30 +694,30 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -738,24 +735,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -773,17 +770,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -801,22 +798,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
